--- a/Example Data BE(Hons).xlsx
+++ b/Example Data BE(Hons).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8a4f1bac3f7be7/Michael Hodgson - OneDrive/University of Western Australia/2023 - YEAR 3/Semester 2/CITS3200 - Professional Computing/Pro-Computing-Team-33/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zacharycheng/university/Pro-Computing-Team-33/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_33343EDDFEADFD56CF3D8DEBEDBC070891CA31E1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{451D0852-2460-4F47-82E6-A224F9E8014A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B2976F-A66E-6C46-B5B3-A61019808953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -283,9 +283,6 @@
     <t>FC</t>
   </si>
   <si>
-    <t>MECH3402</t>
-  </si>
-  <si>
     <t>Measurement and Instrumentation</t>
   </si>
   <si>
@@ -806,6 +803,9 @@
   </si>
   <si>
     <t>International Finance</t>
+  </si>
+  <si>
+    <t>MECH3424</t>
   </si>
 </sst>
 </file>
@@ -1226,8 +1226,8 @@
   </sheetPr>
   <dimension ref="A1:S173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2613,10 +2613,10 @@
         <v>20</v>
       </c>
       <c r="H30" t="s">
+        <v>261</v>
+      </c>
+      <c r="I30" t="s">
         <v>87</v>
-      </c>
-      <c r="I30" t="s">
-        <v>88</v>
       </c>
       <c r="J30" s="7">
         <v>2024</v>
@@ -2660,10 +2660,10 @@
         <v>20</v>
       </c>
       <c r="H31" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" t="s">
         <v>89</v>
-      </c>
-      <c r="I31" t="s">
-        <v>90</v>
       </c>
       <c r="J31" s="7">
         <v>2024</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2751,10 +2751,10 @@
         <v>20</v>
       </c>
       <c r="H33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" t="s">
         <v>92</v>
-      </c>
-      <c r="I33" t="s">
-        <v>93</v>
       </c>
       <c r="J33" s="7">
         <v>2025</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2795,10 +2795,10 @@
         <v>20</v>
       </c>
       <c r="H34" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" t="s">
         <v>95</v>
-      </c>
-      <c r="I34" t="s">
-        <v>96</v>
       </c>
       <c r="J34" s="7">
         <v>2025</v>
@@ -2842,10 +2842,10 @@
         <v>20</v>
       </c>
       <c r="H35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" t="s">
         <v>97</v>
-      </c>
-      <c r="I35" t="s">
-        <v>98</v>
       </c>
       <c r="J35" s="7">
         <v>2025</v>
@@ -2936,10 +2936,10 @@
         <v>20</v>
       </c>
       <c r="H37" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" t="s">
         <v>99</v>
-      </c>
-      <c r="I37" t="s">
-        <v>100</v>
       </c>
       <c r="J37" s="7">
         <v>2025</v>
@@ -2983,10 +2983,10 @@
         <v>20</v>
       </c>
       <c r="H38" t="s">
+        <v>100</v>
+      </c>
+      <c r="I38" t="s">
         <v>101</v>
-      </c>
-      <c r="I38" t="s">
-        <v>102</v>
       </c>
       <c r="J38" s="7">
         <v>2026</v>
@@ -3030,10 +3030,10 @@
         <v>20</v>
       </c>
       <c r="H39" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39" t="s">
         <v>103</v>
-      </c>
-      <c r="I39" t="s">
-        <v>104</v>
       </c>
       <c r="J39" s="7">
         <v>2026</v>
@@ -3124,10 +3124,10 @@
         <v>20</v>
       </c>
       <c r="H41" t="s">
+        <v>104</v>
+      </c>
+      <c r="I41" t="s">
         <v>105</v>
-      </c>
-      <c r="I41" t="s">
-        <v>106</v>
       </c>
       <c r="J41" s="7">
         <v>2026</v>
@@ -3171,10 +3171,10 @@
         <v>20</v>
       </c>
       <c r="H42" t="s">
+        <v>106</v>
+      </c>
+      <c r="I42" t="s">
         <v>107</v>
-      </c>
-      <c r="I42" t="s">
-        <v>108</v>
       </c>
       <c r="J42" s="7">
         <v>2026</v>
@@ -3218,10 +3218,10 @@
         <v>20</v>
       </c>
       <c r="H43" t="s">
+        <v>261</v>
+      </c>
+      <c r="I43" t="s">
         <v>87</v>
-      </c>
-      <c r="I43" t="s">
-        <v>88</v>
       </c>
       <c r="J43" s="7">
         <v>2026</v>
@@ -3265,10 +3265,10 @@
         <v>20</v>
       </c>
       <c r="H44" t="s">
+        <v>108</v>
+      </c>
+      <c r="I44" t="s">
         <v>109</v>
-      </c>
-      <c r="I44" t="s">
-        <v>110</v>
       </c>
       <c r="J44" s="7">
         <v>2026</v>
@@ -3312,10 +3312,10 @@
         <v>20</v>
       </c>
       <c r="H45" t="s">
+        <v>110</v>
+      </c>
+      <c r="I45" t="s">
         <v>111</v>
-      </c>
-      <c r="I45" t="s">
-        <v>112</v>
       </c>
       <c r="J45" s="7">
         <v>2026</v>
@@ -3359,10 +3359,10 @@
         <v>20</v>
       </c>
       <c r="H46" t="s">
+        <v>112</v>
+      </c>
+      <c r="I46" t="s">
         <v>113</v>
-      </c>
-      <c r="I46" t="s">
-        <v>114</v>
       </c>
       <c r="J46" s="7">
         <v>2027</v>
@@ -3406,10 +3406,10 @@
         <v>20</v>
       </c>
       <c r="H47" t="s">
+        <v>114</v>
+      </c>
+      <c r="I47" t="s">
         <v>115</v>
-      </c>
-      <c r="I47" t="s">
-        <v>116</v>
       </c>
       <c r="J47" s="7">
         <v>2027</v>
@@ -3432,22 +3432,22 @@
         <v>23002002</v>
       </c>
       <c r="B48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" t="s">
         <v>117</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>118</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>119</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>120</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>121</v>
-      </c>
-      <c r="G48" t="s">
-        <v>122</v>
       </c>
       <c r="H48" t="s">
         <v>28</v>
@@ -3479,28 +3479,28 @@
         <v>23002002</v>
       </c>
       <c r="B49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" t="s">
         <v>117</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>118</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>119</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>120</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>121</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>122</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>123</v>
-      </c>
-      <c r="I49" t="s">
-        <v>124</v>
       </c>
       <c r="J49" s="7">
         <v>2023</v>
@@ -3526,28 +3526,28 @@
         <v>23002002</v>
       </c>
       <c r="B50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" t="s">
         <v>117</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>118</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>119</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>120</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>121</v>
       </c>
-      <c r="G50" t="s">
-        <v>122</v>
-      </c>
       <c r="H50" t="s">
+        <v>124</v>
+      </c>
+      <c r="I50" t="s">
         <v>125</v>
-      </c>
-      <c r="I50" t="s">
-        <v>126</v>
       </c>
       <c r="J50" s="7">
         <v>2023</v>
@@ -3573,22 +3573,22 @@
         <v>23002002</v>
       </c>
       <c r="B51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" t="s">
         <v>117</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>118</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>119</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>120</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>121</v>
-      </c>
-      <c r="G51" t="s">
-        <v>122</v>
       </c>
       <c r="H51" t="s">
         <v>21</v>
@@ -3620,22 +3620,22 @@
         <v>23002002</v>
       </c>
       <c r="B52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" t="s">
         <v>117</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>118</v>
       </c>
-      <c r="D52" t="s">
-        <v>119</v>
-      </c>
       <c r="E52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F52" t="s">
+        <v>120</v>
+      </c>
+      <c r="G52" t="s">
         <v>121</v>
-      </c>
-      <c r="G52" t="s">
-        <v>122</v>
       </c>
       <c r="H52" t="s">
         <v>34</v>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3664,22 +3664,22 @@
         <v>23002002</v>
       </c>
       <c r="B53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" t="s">
         <v>117</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>118</v>
       </c>
-      <c r="D53" t="s">
-        <v>119</v>
-      </c>
       <c r="E53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F53" t="s">
+        <v>120</v>
+      </c>
+      <c r="G53" t="s">
         <v>121</v>
-      </c>
-      <c r="G53" t="s">
-        <v>122</v>
       </c>
       <c r="H53" t="s">
         <v>34</v>
@@ -3708,22 +3708,22 @@
         <v>23002002</v>
       </c>
       <c r="B54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" t="s">
         <v>117</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>118</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>119</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>120</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>121</v>
-      </c>
-      <c r="G54" t="s">
-        <v>122</v>
       </c>
       <c r="H54" t="s">
         <v>25</v>
@@ -3755,22 +3755,22 @@
         <v>23002002</v>
       </c>
       <c r="B55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" t="s">
         <v>117</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>118</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>119</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>120</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>121</v>
-      </c>
-      <c r="G55" t="s">
-        <v>122</v>
       </c>
       <c r="H55" t="s">
         <v>30</v>
@@ -3802,28 +3802,28 @@
         <v>23002002</v>
       </c>
       <c r="B56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" t="s">
         <v>117</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>118</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>119</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>120</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>121</v>
       </c>
-      <c r="G56" t="s">
-        <v>122</v>
-      </c>
       <c r="H56" t="s">
+        <v>128</v>
+      </c>
+      <c r="I56" t="s">
         <v>129</v>
-      </c>
-      <c r="I56" t="s">
-        <v>130</v>
       </c>
       <c r="J56" s="7">
         <v>2023</v>
@@ -3849,28 +3849,28 @@
         <v>23002002</v>
       </c>
       <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" t="s">
         <v>117</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>118</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>119</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>120</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>121</v>
       </c>
-      <c r="G57" t="s">
-        <v>122</v>
-      </c>
       <c r="H57" t="s">
+        <v>130</v>
+      </c>
+      <c r="I57" t="s">
         <v>131</v>
-      </c>
-      <c r="I57" t="s">
-        <v>132</v>
       </c>
       <c r="J57" s="7">
         <v>2023</v>
@@ -3896,22 +3896,22 @@
         <v>23002002</v>
       </c>
       <c r="B58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" t="s">
         <v>117</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>118</v>
       </c>
-      <c r="D58" t="s">
-        <v>119</v>
-      </c>
       <c r="E58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F58" t="s">
+        <v>120</v>
+      </c>
+      <c r="G58" t="s">
         <v>121</v>
-      </c>
-      <c r="G58" t="s">
-        <v>122</v>
       </c>
       <c r="H58" t="s">
         <v>38</v>
@@ -3923,7 +3923,7 @@
         <v>2023</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L58" s="9">
         <v>0</v>
@@ -3940,22 +3940,22 @@
         <v>23002002</v>
       </c>
       <c r="B59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" t="s">
         <v>117</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>118</v>
       </c>
-      <c r="D59" t="s">
-        <v>119</v>
-      </c>
       <c r="E59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F59" t="s">
+        <v>120</v>
+      </c>
+      <c r="G59" t="s">
         <v>121</v>
-      </c>
-      <c r="G59" t="s">
-        <v>122</v>
       </c>
       <c r="H59" t="s">
         <v>41</v>
@@ -3967,7 +3967,7 @@
         <v>2023</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L59" s="9">
         <v>0</v>
@@ -3984,22 +3984,22 @@
         <v>23002002</v>
       </c>
       <c r="B60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" t="s">
         <v>117</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>118</v>
       </c>
-      <c r="D60" t="s">
-        <v>119</v>
-      </c>
       <c r="E60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F60" t="s">
+        <v>120</v>
+      </c>
+      <c r="G60" t="s">
         <v>121</v>
-      </c>
-      <c r="G60" t="s">
-        <v>122</v>
       </c>
       <c r="H60" t="s">
         <v>43</v>
@@ -4011,7 +4011,7 @@
         <v>2023</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L60" s="9">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>23002002</v>
       </c>
       <c r="B61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" t="s">
         <v>117</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>118</v>
       </c>
-      <c r="D61" t="s">
-        <v>119</v>
-      </c>
       <c r="E61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F61" t="s">
+        <v>120</v>
+      </c>
+      <c r="G61" t="s">
         <v>121</v>
-      </c>
-      <c r="G61" t="s">
-        <v>122</v>
       </c>
       <c r="H61" t="s">
         <v>54</v>
@@ -4055,7 +4055,7 @@
         <v>2023</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L61" s="9">
         <v>0</v>
@@ -4072,28 +4072,28 @@
         <v>23002002</v>
       </c>
       <c r="B62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" t="s">
         <v>117</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>118</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>119</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>120</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>121</v>
       </c>
-      <c r="G62" t="s">
-        <v>122</v>
-      </c>
       <c r="H62" t="s">
+        <v>136</v>
+      </c>
+      <c r="I62" t="s">
         <v>137</v>
-      </c>
-      <c r="I62" t="s">
-        <v>138</v>
       </c>
       <c r="J62" s="7">
         <v>2024</v>
@@ -4119,22 +4119,22 @@
         <v>23002002</v>
       </c>
       <c r="B63" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" t="s">
         <v>117</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>118</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>119</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>120</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>121</v>
-      </c>
-      <c r="G63" t="s">
-        <v>122</v>
       </c>
       <c r="H63" t="s">
         <v>25</v>
@@ -4166,22 +4166,22 @@
         <v>23002002</v>
       </c>
       <c r="B64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" t="s">
         <v>117</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>118</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>119</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>120</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>121</v>
-      </c>
-      <c r="G64" t="s">
-        <v>122</v>
       </c>
       <c r="H64" t="s">
         <v>50</v>
@@ -4213,28 +4213,28 @@
         <v>23002002</v>
       </c>
       <c r="B65" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" t="s">
         <v>117</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>118</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>119</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>120</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>121</v>
       </c>
-      <c r="G65" t="s">
-        <v>122</v>
-      </c>
       <c r="H65" t="s">
+        <v>138</v>
+      </c>
+      <c r="I65" t="s">
         <v>139</v>
-      </c>
-      <c r="I65" t="s">
-        <v>140</v>
       </c>
       <c r="J65" s="7">
         <v>2024</v>
@@ -4260,22 +4260,22 @@
         <v>23002002</v>
       </c>
       <c r="B66" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" t="s">
         <v>117</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>118</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>119</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>120</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>121</v>
-      </c>
-      <c r="G66" t="s">
-        <v>122</v>
       </c>
       <c r="H66" t="s">
         <v>45</v>
@@ -4307,28 +4307,28 @@
         <v>23002002</v>
       </c>
       <c r="B67" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" t="s">
         <v>117</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>118</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>119</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>120</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>121</v>
       </c>
-      <c r="G67" t="s">
-        <v>122</v>
-      </c>
       <c r="H67" t="s">
+        <v>140</v>
+      </c>
+      <c r="I67" t="s">
         <v>141</v>
-      </c>
-      <c r="I67" t="s">
-        <v>142</v>
       </c>
       <c r="J67" s="7">
         <v>2024</v>
@@ -4354,28 +4354,28 @@
         <v>23002002</v>
       </c>
       <c r="B68" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" t="s">
         <v>117</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>118</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>119</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>120</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>121</v>
       </c>
-      <c r="G68" t="s">
-        <v>122</v>
-      </c>
       <c r="H68" t="s">
+        <v>142</v>
+      </c>
+      <c r="I68" t="s">
         <v>143</v>
-      </c>
-      <c r="I68" t="s">
-        <v>144</v>
       </c>
       <c r="J68" s="7">
         <v>2024</v>
@@ -4401,28 +4401,28 @@
         <v>23002002</v>
       </c>
       <c r="B69" t="s">
+        <v>116</v>
+      </c>
+      <c r="C69" t="s">
         <v>117</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>118</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>119</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>120</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>121</v>
       </c>
-      <c r="G69" t="s">
-        <v>122</v>
-      </c>
       <c r="H69" t="s">
+        <v>144</v>
+      </c>
+      <c r="I69" t="s">
         <v>145</v>
-      </c>
-      <c r="I69" t="s">
-        <v>146</v>
       </c>
       <c r="J69" s="7">
         <v>2024</v>
@@ -4448,22 +4448,22 @@
         <v>23002002</v>
       </c>
       <c r="B70" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" t="s">
         <v>117</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>118</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>119</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>120</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>121</v>
-      </c>
-      <c r="G70" t="s">
-        <v>122</v>
       </c>
       <c r="H70" t="s">
         <v>75</v>
@@ -4492,28 +4492,28 @@
         <v>23002002</v>
       </c>
       <c r="B71" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" t="s">
         <v>117</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>118</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>119</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>120</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>121</v>
       </c>
-      <c r="G71" t="s">
-        <v>122</v>
-      </c>
       <c r="H71" t="s">
+        <v>146</v>
+      </c>
+      <c r="I71" t="s">
         <v>147</v>
-      </c>
-      <c r="I71" t="s">
-        <v>148</v>
       </c>
       <c r="J71" s="7">
         <v>2025</v>
@@ -4539,28 +4539,28 @@
         <v>23002002</v>
       </c>
       <c r="B72" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" t="s">
         <v>117</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>118</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>119</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>120</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>121</v>
       </c>
-      <c r="G72" t="s">
-        <v>122</v>
-      </c>
       <c r="H72" t="s">
+        <v>136</v>
+      </c>
+      <c r="I72" t="s">
         <v>137</v>
-      </c>
-      <c r="I72" t="s">
-        <v>138</v>
       </c>
       <c r="J72" s="7">
         <v>2025</v>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="N72" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O72" s="9">
         <v>46</v>
@@ -4586,28 +4586,28 @@
         <v>23002002</v>
       </c>
       <c r="B73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" t="s">
         <v>117</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>118</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>119</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>120</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>121</v>
       </c>
-      <c r="G73" t="s">
-        <v>122</v>
-      </c>
       <c r="H73" t="s">
+        <v>149</v>
+      </c>
+      <c r="I73" t="s">
         <v>150</v>
-      </c>
-      <c r="I73" t="s">
-        <v>151</v>
       </c>
       <c r="J73" s="7">
         <v>2025</v>
@@ -4633,22 +4633,22 @@
         <v>23002002</v>
       </c>
       <c r="B74" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" t="s">
         <v>117</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>118</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>119</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>120</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>121</v>
-      </c>
-      <c r="G74" t="s">
-        <v>122</v>
       </c>
       <c r="H74" t="s">
         <v>59</v>
@@ -4669,7 +4669,7 @@
         <v>6</v>
       </c>
       <c r="N74" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4677,28 +4677,28 @@
         <v>23002002</v>
       </c>
       <c r="B75" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75" t="s">
         <v>117</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>118</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>119</v>
       </c>
-      <c r="E75" t="s">
-        <v>120</v>
-      </c>
       <c r="F75" t="s">
         <v>19</v>
       </c>
       <c r="G75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H75" t="s">
+        <v>152</v>
+      </c>
+      <c r="I75" t="s">
         <v>153</v>
-      </c>
-      <c r="I75" t="s">
-        <v>154</v>
       </c>
       <c r="J75" s="7">
         <v>2025</v>
@@ -4724,28 +4724,28 @@
         <v>23002002</v>
       </c>
       <c r="B76" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" t="s">
         <v>117</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>118</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>119</v>
       </c>
-      <c r="E76" t="s">
-        <v>120</v>
-      </c>
       <c r="F76" t="s">
         <v>19</v>
       </c>
       <c r="G76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H76" t="s">
+        <v>154</v>
+      </c>
+      <c r="I76" t="s">
         <v>155</v>
-      </c>
-      <c r="I76" t="s">
-        <v>156</v>
       </c>
       <c r="J76" s="7">
         <v>2025</v>
@@ -4771,14 +4771,14 @@
         <v>23002002</v>
       </c>
       <c r="B77" t="s">
+        <v>116</v>
+      </c>
+      <c r="C77" t="s">
         <v>117</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>118</v>
       </c>
-      <c r="D77" t="s">
-        <v>119</v>
-      </c>
       <c r="E77" t="s">
         <v>18</v>
       </c>
@@ -4786,13 +4786,13 @@
         <v>19</v>
       </c>
       <c r="G77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H77" t="s">
+        <v>88</v>
+      </c>
+      <c r="I77" t="s">
         <v>89</v>
-      </c>
-      <c r="I77" t="s">
-        <v>90</v>
       </c>
       <c r="J77" s="7">
         <v>2025</v>
@@ -4818,14 +4818,14 @@
         <v>23002002</v>
       </c>
       <c r="B78" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" t="s">
         <v>117</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>118</v>
       </c>
-      <c r="D78" t="s">
-        <v>119</v>
-      </c>
       <c r="E78" t="s">
         <v>18</v>
       </c>
@@ -4833,13 +4833,13 @@
         <v>19</v>
       </c>
       <c r="G78" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H78" t="s">
+        <v>156</v>
+      </c>
+      <c r="I78" t="s">
         <v>157</v>
-      </c>
-      <c r="I78" t="s">
-        <v>158</v>
       </c>
       <c r="J78" s="7">
         <v>2025</v>
@@ -4865,14 +4865,14 @@
         <v>23002002</v>
       </c>
       <c r="B79" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" t="s">
         <v>117</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>118</v>
       </c>
-      <c r="D79" t="s">
-        <v>119</v>
-      </c>
       <c r="E79" t="s">
         <v>18</v>
       </c>
@@ -4880,13 +4880,13 @@
         <v>19</v>
       </c>
       <c r="G79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H79" t="s">
+        <v>158</v>
+      </c>
+      <c r="I79" t="s">
         <v>159</v>
-      </c>
-      <c r="I79" t="s">
-        <v>160</v>
       </c>
       <c r="J79" s="7">
         <v>2026</v>
@@ -4912,14 +4912,14 @@
         <v>23002002</v>
       </c>
       <c r="B80" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" t="s">
         <v>117</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>118</v>
       </c>
-      <c r="D80" t="s">
-        <v>119</v>
-      </c>
       <c r="E80" t="s">
         <v>18</v>
       </c>
@@ -4927,13 +4927,13 @@
         <v>19</v>
       </c>
       <c r="G80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H80" t="s">
+        <v>160</v>
+      </c>
+      <c r="I80" t="s">
         <v>161</v>
-      </c>
-      <c r="I80" t="s">
-        <v>162</v>
       </c>
       <c r="J80" s="7">
         <v>2026</v>
@@ -4959,14 +4959,14 @@
         <v>23002002</v>
       </c>
       <c r="B81" t="s">
+        <v>116</v>
+      </c>
+      <c r="C81" t="s">
         <v>117</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>118</v>
       </c>
-      <c r="D81" t="s">
-        <v>119</v>
-      </c>
       <c r="E81" t="s">
         <v>18</v>
       </c>
@@ -4974,13 +4974,13 @@
         <v>19</v>
       </c>
       <c r="G81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H81" t="s">
+        <v>162</v>
+      </c>
+      <c r="I81" t="s">
         <v>163</v>
-      </c>
-      <c r="I81" t="s">
-        <v>164</v>
       </c>
       <c r="J81" s="7">
         <v>2026</v>
@@ -5006,14 +5006,14 @@
         <v>23002002</v>
       </c>
       <c r="B82" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" t="s">
         <v>117</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>118</v>
       </c>
-      <c r="D82" t="s">
-        <v>119</v>
-      </c>
       <c r="E82" t="s">
         <v>18</v>
       </c>
@@ -5021,13 +5021,13 @@
         <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H82" t="s">
+        <v>164</v>
+      </c>
+      <c r="I82" t="s">
         <v>165</v>
-      </c>
-      <c r="I82" t="s">
-        <v>166</v>
       </c>
       <c r="J82" s="7">
         <v>2026</v>
@@ -5053,14 +5053,14 @@
         <v>23002002</v>
       </c>
       <c r="B83" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" t="s">
         <v>117</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>118</v>
       </c>
-      <c r="D83" t="s">
-        <v>119</v>
-      </c>
       <c r="E83" t="s">
         <v>18</v>
       </c>
@@ -5068,13 +5068,13 @@
         <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H83" t="s">
+        <v>108</v>
+      </c>
+      <c r="I83" t="s">
         <v>109</v>
-      </c>
-      <c r="I83" t="s">
-        <v>110</v>
       </c>
       <c r="J83" s="7">
         <v>2026</v>
@@ -5100,14 +5100,14 @@
         <v>23002002</v>
       </c>
       <c r="B84" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" t="s">
         <v>117</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>118</v>
       </c>
-      <c r="D84" t="s">
-        <v>119</v>
-      </c>
       <c r="E84" t="s">
         <v>18</v>
       </c>
@@ -5115,19 +5115,19 @@
         <v>19</v>
       </c>
       <c r="G84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H84" t="s">
+        <v>166</v>
+      </c>
+      <c r="I84" t="s">
         <v>167</v>
-      </c>
-      <c r="I84" t="s">
-        <v>168</v>
       </c>
       <c r="J84" s="7">
         <v>2026</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L84" s="9">
         <v>6</v>
@@ -5147,14 +5147,14 @@
         <v>23002002</v>
       </c>
       <c r="B85" t="s">
+        <v>116</v>
+      </c>
+      <c r="C85" t="s">
         <v>117</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>118</v>
       </c>
-      <c r="D85" t="s">
-        <v>119</v>
-      </c>
       <c r="E85" t="s">
         <v>18</v>
       </c>
@@ -5162,13 +5162,13 @@
         <v>19</v>
       </c>
       <c r="G85" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H85" t="s">
+        <v>169</v>
+      </c>
+      <c r="I85" t="s">
         <v>170</v>
-      </c>
-      <c r="I85" t="s">
-        <v>171</v>
       </c>
       <c r="J85" s="7">
         <v>2026</v>
@@ -5194,14 +5194,14 @@
         <v>23002002</v>
       </c>
       <c r="B86" t="s">
+        <v>116</v>
+      </c>
+      <c r="C86" t="s">
         <v>117</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>118</v>
       </c>
-      <c r="D86" t="s">
-        <v>119</v>
-      </c>
       <c r="E86" t="s">
         <v>18</v>
       </c>
@@ -5209,13 +5209,13 @@
         <v>19</v>
       </c>
       <c r="G86" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H86" t="s">
+        <v>171</v>
+      </c>
+      <c r="I86" t="s">
         <v>172</v>
-      </c>
-      <c r="I86" t="s">
-        <v>173</v>
       </c>
       <c r="J86" s="7">
         <v>2026</v>
@@ -5241,14 +5241,14 @@
         <v>23002002</v>
       </c>
       <c r="B87" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" t="s">
         <v>117</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>118</v>
       </c>
-      <c r="D87" t="s">
-        <v>119</v>
-      </c>
       <c r="E87" t="s">
         <v>18</v>
       </c>
@@ -5256,13 +5256,13 @@
         <v>19</v>
       </c>
       <c r="G87" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H87" t="s">
+        <v>173</v>
+      </c>
+      <c r="I87" t="s">
         <v>174</v>
-      </c>
-      <c r="I87" t="s">
-        <v>175</v>
       </c>
       <c r="J87" s="7">
         <v>2027</v>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="N87" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5285,14 +5285,14 @@
         <v>23002002</v>
       </c>
       <c r="B88" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" t="s">
         <v>117</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>118</v>
       </c>
-      <c r="D88" t="s">
-        <v>119</v>
-      </c>
       <c r="E88" t="s">
         <v>18</v>
       </c>
@@ -5300,13 +5300,13 @@
         <v>19</v>
       </c>
       <c r="G88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H88" t="s">
+        <v>104</v>
+      </c>
+      <c r="I88" t="s">
         <v>105</v>
-      </c>
-      <c r="I88" t="s">
-        <v>106</v>
       </c>
       <c r="J88" s="7">
         <v>2027</v>
@@ -5332,14 +5332,14 @@
         <v>23002002</v>
       </c>
       <c r="B89" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89" t="s">
         <v>117</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>118</v>
       </c>
-      <c r="D89" t="s">
-        <v>119</v>
-      </c>
       <c r="E89" t="s">
         <v>18</v>
       </c>
@@ -5347,13 +5347,13 @@
         <v>19</v>
       </c>
       <c r="G89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H89" t="s">
+        <v>100</v>
+      </c>
+      <c r="I89" t="s">
         <v>101</v>
-      </c>
-      <c r="I89" t="s">
-        <v>102</v>
       </c>
       <c r="J89" s="7">
         <v>2027</v>
@@ -5379,14 +5379,14 @@
         <v>23002002</v>
       </c>
       <c r="B90" t="s">
+        <v>116</v>
+      </c>
+      <c r="C90" t="s">
         <v>117</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>118</v>
       </c>
-      <c r="D90" t="s">
-        <v>119</v>
-      </c>
       <c r="E90" t="s">
         <v>18</v>
       </c>
@@ -5394,13 +5394,13 @@
         <v>19</v>
       </c>
       <c r="G90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H90" t="s">
+        <v>176</v>
+      </c>
+      <c r="I90" t="s">
         <v>177</v>
-      </c>
-      <c r="I90" t="s">
-        <v>178</v>
       </c>
       <c r="J90" s="7">
         <v>2027</v>
@@ -5426,14 +5426,14 @@
         <v>23002002</v>
       </c>
       <c r="B91" t="s">
+        <v>116</v>
+      </c>
+      <c r="C91" t="s">
         <v>117</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>118</v>
       </c>
-      <c r="D91" t="s">
-        <v>119</v>
-      </c>
       <c r="E91" t="s">
         <v>18</v>
       </c>
@@ -5441,13 +5441,13 @@
         <v>19</v>
       </c>
       <c r="G91" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H91" t="s">
+        <v>178</v>
+      </c>
+      <c r="I91" t="s">
         <v>179</v>
-      </c>
-      <c r="I91" t="s">
-        <v>180</v>
       </c>
       <c r="J91" s="7">
         <v>2027</v>
@@ -5473,14 +5473,14 @@
         <v>23002002</v>
       </c>
       <c r="B92" t="s">
+        <v>116</v>
+      </c>
+      <c r="C92" t="s">
         <v>117</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>118</v>
       </c>
-      <c r="D92" t="s">
-        <v>119</v>
-      </c>
       <c r="E92" t="s">
         <v>18</v>
       </c>
@@ -5488,13 +5488,13 @@
         <v>19</v>
       </c>
       <c r="G92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H92" t="s">
+        <v>114</v>
+      </c>
+      <c r="I92" t="s">
         <v>115</v>
-      </c>
-      <c r="I92" t="s">
-        <v>116</v>
       </c>
       <c r="J92" s="7">
         <v>2027</v>
@@ -5517,22 +5517,22 @@
         <v>23013000</v>
       </c>
       <c r="B93" t="s">
+        <v>180</v>
+      </c>
+      <c r="C93" t="s">
         <v>181</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" t="s">
+        <v>19</v>
+      </c>
+      <c r="G93" t="s">
         <v>182</v>
-      </c>
-      <c r="D93" t="s">
-        <v>17</v>
-      </c>
-      <c r="E93" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" t="s">
-        <v>183</v>
       </c>
       <c r="H93" t="s">
         <v>28</v>
@@ -5564,22 +5564,22 @@
         <v>23013000</v>
       </c>
       <c r="B94" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" t="s">
         <v>181</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" t="s">
         <v>182</v>
-      </c>
-      <c r="D94" t="s">
-        <v>17</v>
-      </c>
-      <c r="E94" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s">
-        <v>183</v>
       </c>
       <c r="H94" t="s">
         <v>21</v>
@@ -5611,28 +5611,28 @@
         <v>23013000</v>
       </c>
       <c r="B95" t="s">
+        <v>180</v>
+      </c>
+      <c r="C95" t="s">
         <v>181</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" t="s">
+        <v>19</v>
+      </c>
+      <c r="G95" t="s">
         <v>182</v>
       </c>
-      <c r="D95" t="s">
-        <v>17</v>
-      </c>
-      <c r="E95" t="s">
-        <v>18</v>
-      </c>
-      <c r="F95" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>183</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>184</v>
-      </c>
-      <c r="I95" t="s">
-        <v>185</v>
       </c>
       <c r="J95" s="7">
         <v>2024</v>
@@ -5658,22 +5658,22 @@
         <v>23013000</v>
       </c>
       <c r="B96" t="s">
+        <v>180</v>
+      </c>
+      <c r="C96" t="s">
         <v>181</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96" t="s">
+        <v>19</v>
+      </c>
+      <c r="G96" t="s">
         <v>182</v>
-      </c>
-      <c r="D96" t="s">
-        <v>17</v>
-      </c>
-      <c r="E96" t="s">
-        <v>18</v>
-      </c>
-      <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s">
-        <v>183</v>
       </c>
       <c r="H96" t="s">
         <v>25</v>
@@ -5705,22 +5705,22 @@
         <v>23013000</v>
       </c>
       <c r="B97" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97" t="s">
         <v>181</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G97" t="s">
         <v>182</v>
-      </c>
-      <c r="D97" t="s">
-        <v>17</v>
-      </c>
-      <c r="E97" t="s">
-        <v>18</v>
-      </c>
-      <c r="F97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" t="s">
-        <v>183</v>
       </c>
       <c r="H97" t="s">
         <v>38</v>
@@ -5749,22 +5749,22 @@
         <v>23013000</v>
       </c>
       <c r="B98" t="s">
+        <v>180</v>
+      </c>
+      <c r="C98" t="s">
         <v>181</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" t="s">
         <v>182</v>
-      </c>
-      <c r="D98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E98" t="s">
-        <v>18</v>
-      </c>
-      <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" t="s">
-        <v>183</v>
       </c>
       <c r="H98" t="s">
         <v>41</v>
@@ -5793,22 +5793,22 @@
         <v>23013000</v>
       </c>
       <c r="B99" t="s">
+        <v>180</v>
+      </c>
+      <c r="C99" t="s">
         <v>181</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" t="s">
+        <v>19</v>
+      </c>
+      <c r="G99" t="s">
         <v>182</v>
-      </c>
-      <c r="D99" t="s">
-        <v>17</v>
-      </c>
-      <c r="E99" t="s">
-        <v>18</v>
-      </c>
-      <c r="F99" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" t="s">
-        <v>183</v>
       </c>
       <c r="H99" t="s">
         <v>43</v>
@@ -5837,22 +5837,22 @@
         <v>23013000</v>
       </c>
       <c r="B100" t="s">
+        <v>180</v>
+      </c>
+      <c r="C100" t="s">
         <v>181</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100" t="s">
         <v>182</v>
-      </c>
-      <c r="D100" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" t="s">
-        <v>18</v>
-      </c>
-      <c r="F100" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" t="s">
-        <v>183</v>
       </c>
       <c r="H100" t="s">
         <v>34</v>
@@ -5881,22 +5881,22 @@
         <v>23013000</v>
       </c>
       <c r="B101" t="s">
+        <v>180</v>
+      </c>
+      <c r="C101" t="s">
         <v>181</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" t="s">
         <v>182</v>
-      </c>
-      <c r="D101" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" t="s">
-        <v>18</v>
-      </c>
-      <c r="F101" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" t="s">
-        <v>183</v>
       </c>
       <c r="H101" t="s">
         <v>50</v>
@@ -5928,22 +5928,22 @@
         <v>23013000</v>
       </c>
       <c r="B102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C102" t="s">
         <v>181</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" t="s">
         <v>182</v>
-      </c>
-      <c r="D102" t="s">
-        <v>17</v>
-      </c>
-      <c r="E102" t="s">
-        <v>18</v>
-      </c>
-      <c r="F102" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102" t="s">
-        <v>183</v>
       </c>
       <c r="H102" t="s">
         <v>30</v>
@@ -5975,22 +5975,22 @@
         <v>23013000</v>
       </c>
       <c r="B103" t="s">
+        <v>180</v>
+      </c>
+      <c r="C103" t="s">
         <v>181</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" t="s">
+        <v>19</v>
+      </c>
+      <c r="G103" t="s">
         <v>182</v>
-      </c>
-      <c r="D103" t="s">
-        <v>17</v>
-      </c>
-      <c r="E103" t="s">
-        <v>18</v>
-      </c>
-      <c r="F103" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" t="s">
-        <v>183</v>
       </c>
       <c r="H103" t="s">
         <v>48</v>
@@ -6022,28 +6022,28 @@
         <v>23013000</v>
       </c>
       <c r="B104" t="s">
+        <v>180</v>
+      </c>
+      <c r="C104" t="s">
         <v>181</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" t="s">
         <v>182</v>
       </c>
-      <c r="D104" t="s">
-        <v>17</v>
-      </c>
-      <c r="E104" t="s">
-        <v>18</v>
-      </c>
-      <c r="F104" t="s">
-        <v>19</v>
-      </c>
-      <c r="G104" t="s">
-        <v>183</v>
-      </c>
       <c r="H104" t="s">
+        <v>185</v>
+      </c>
+      <c r="I104" t="s">
         <v>186</v>
-      </c>
-      <c r="I104" t="s">
-        <v>187</v>
       </c>
       <c r="J104" s="7">
         <v>2024</v>
@@ -6069,22 +6069,22 @@
         <v>23013000</v>
       </c>
       <c r="B105" t="s">
+        <v>180</v>
+      </c>
+      <c r="C105" t="s">
         <v>181</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" t="s">
         <v>182</v>
-      </c>
-      <c r="D105" t="s">
-        <v>17</v>
-      </c>
-      <c r="E105" t="s">
-        <v>18</v>
-      </c>
-      <c r="F105" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" t="s">
-        <v>183</v>
       </c>
       <c r="H105" t="s">
         <v>54</v>
@@ -6096,7 +6096,7 @@
         <v>2024</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L105" s="9">
         <v>0</v>
@@ -6113,28 +6113,28 @@
         <v>23013000</v>
       </c>
       <c r="B106" t="s">
+        <v>180</v>
+      </c>
+      <c r="C106" t="s">
         <v>181</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" t="s">
+        <v>19</v>
+      </c>
+      <c r="G106" t="s">
         <v>182</v>
       </c>
-      <c r="D106" t="s">
-        <v>17</v>
-      </c>
-      <c r="E106" t="s">
-        <v>18</v>
-      </c>
-      <c r="F106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>183</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>184</v>
-      </c>
-      <c r="I106" t="s">
-        <v>185</v>
       </c>
       <c r="J106" s="7">
         <v>2025</v>
@@ -6160,28 +6160,28 @@
         <v>23013000</v>
       </c>
       <c r="B107" t="s">
+        <v>180</v>
+      </c>
+      <c r="C107" t="s">
         <v>181</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" t="s">
         <v>182</v>
       </c>
-      <c r="D107" t="s">
-        <v>17</v>
-      </c>
-      <c r="E107" t="s">
-        <v>18</v>
-      </c>
-      <c r="F107" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" t="s">
-        <v>183</v>
-      </c>
       <c r="H107" t="s">
+        <v>188</v>
+      </c>
+      <c r="I107" t="s">
         <v>189</v>
-      </c>
-      <c r="I107" t="s">
-        <v>190</v>
       </c>
       <c r="J107" s="7">
         <v>2025</v>
@@ -6207,22 +6207,22 @@
         <v>23013000</v>
       </c>
       <c r="B108" t="s">
+        <v>180</v>
+      </c>
+      <c r="C108" t="s">
         <v>181</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108" t="s">
+        <v>19</v>
+      </c>
+      <c r="G108" t="s">
         <v>182</v>
-      </c>
-      <c r="D108" t="s">
-        <v>17</v>
-      </c>
-      <c r="E108" t="s">
-        <v>18</v>
-      </c>
-      <c r="F108" t="s">
-        <v>19</v>
-      </c>
-      <c r="G108" t="s">
-        <v>183</v>
       </c>
       <c r="H108" t="s">
         <v>62</v>
@@ -6254,28 +6254,28 @@
         <v>23013000</v>
       </c>
       <c r="B109" t="s">
+        <v>180</v>
+      </c>
+      <c r="C109" t="s">
         <v>181</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" t="s">
+        <v>19</v>
+      </c>
+      <c r="G109" t="s">
         <v>182</v>
       </c>
-      <c r="D109" t="s">
-        <v>17</v>
-      </c>
-      <c r="E109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F109" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" t="s">
-        <v>183</v>
-      </c>
       <c r="H109" t="s">
+        <v>190</v>
+      </c>
+      <c r="I109" t="s">
         <v>191</v>
-      </c>
-      <c r="I109" t="s">
-        <v>192</v>
       </c>
       <c r="J109" s="7">
         <v>2025</v>
@@ -6301,22 +6301,22 @@
         <v>23013000</v>
       </c>
       <c r="B110" t="s">
+        <v>180</v>
+      </c>
+      <c r="C110" t="s">
         <v>181</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" t="s">
+        <v>19</v>
+      </c>
+      <c r="G110" t="s">
         <v>182</v>
-      </c>
-      <c r="D110" t="s">
-        <v>17</v>
-      </c>
-      <c r="E110" t="s">
-        <v>18</v>
-      </c>
-      <c r="F110" t="s">
-        <v>19</v>
-      </c>
-      <c r="G110" t="s">
-        <v>183</v>
       </c>
       <c r="H110" t="s">
         <v>75</v>
@@ -6345,28 +6345,28 @@
         <v>23013000</v>
       </c>
       <c r="B111" t="s">
+        <v>180</v>
+      </c>
+      <c r="C111" t="s">
         <v>181</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" t="s">
+        <v>18</v>
+      </c>
+      <c r="F111" t="s">
+        <v>19</v>
+      </c>
+      <c r="G111" t="s">
         <v>182</v>
       </c>
-      <c r="D111" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" t="s">
-        <v>18</v>
-      </c>
-      <c r="F111" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" t="s">
-        <v>183</v>
-      </c>
       <c r="H111" t="s">
+        <v>192</v>
+      </c>
+      <c r="I111" t="s">
         <v>193</v>
-      </c>
-      <c r="I111" t="s">
-        <v>194</v>
       </c>
       <c r="J111" s="7">
         <v>2025</v>
@@ -6392,28 +6392,28 @@
         <v>23013000</v>
       </c>
       <c r="B112" t="s">
+        <v>180</v>
+      </c>
+      <c r="C112" t="s">
         <v>181</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" t="s">
+        <v>19</v>
+      </c>
+      <c r="G112" t="s">
         <v>182</v>
       </c>
-      <c r="D112" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" t="s">
-        <v>18</v>
-      </c>
-      <c r="F112" t="s">
-        <v>19</v>
-      </c>
-      <c r="G112" t="s">
-        <v>183</v>
-      </c>
       <c r="H112" t="s">
+        <v>194</v>
+      </c>
+      <c r="I112" t="s">
         <v>195</v>
-      </c>
-      <c r="I112" t="s">
-        <v>196</v>
       </c>
       <c r="J112" s="7">
         <v>2025</v>
@@ -6439,28 +6439,28 @@
         <v>23013000</v>
       </c>
       <c r="B113" t="s">
+        <v>180</v>
+      </c>
+      <c r="C113" t="s">
         <v>181</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113" t="s">
+        <v>19</v>
+      </c>
+      <c r="G113" t="s">
         <v>182</v>
       </c>
-      <c r="D113" t="s">
-        <v>17</v>
-      </c>
-      <c r="E113" t="s">
-        <v>18</v>
-      </c>
-      <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" t="s">
-        <v>183</v>
-      </c>
       <c r="H113" t="s">
+        <v>196</v>
+      </c>
+      <c r="I113" t="s">
         <v>197</v>
-      </c>
-      <c r="I113" t="s">
-        <v>198</v>
       </c>
       <c r="J113" s="7">
         <v>2025</v>
@@ -6486,28 +6486,28 @@
         <v>23013000</v>
       </c>
       <c r="B114" t="s">
+        <v>180</v>
+      </c>
+      <c r="C114" t="s">
         <v>181</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" t="s">
+        <v>18</v>
+      </c>
+      <c r="F114" t="s">
+        <v>19</v>
+      </c>
+      <c r="G114" t="s">
         <v>182</v>
       </c>
-      <c r="D114" t="s">
-        <v>17</v>
-      </c>
-      <c r="E114" t="s">
-        <v>18</v>
-      </c>
-      <c r="F114" t="s">
-        <v>19</v>
-      </c>
-      <c r="G114" t="s">
-        <v>183</v>
-      </c>
       <c r="H114" t="s">
+        <v>198</v>
+      </c>
+      <c r="I114" t="s">
         <v>199</v>
-      </c>
-      <c r="I114" t="s">
-        <v>200</v>
       </c>
       <c r="J114" s="7">
         <v>2025</v>
@@ -6533,28 +6533,28 @@
         <v>23013000</v>
       </c>
       <c r="B115" t="s">
+        <v>180</v>
+      </c>
+      <c r="C115" t="s">
         <v>181</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" t="s">
+        <v>19</v>
+      </c>
+      <c r="G115" t="s">
         <v>182</v>
       </c>
-      <c r="D115" t="s">
-        <v>17</v>
-      </c>
-      <c r="E115" t="s">
-        <v>18</v>
-      </c>
-      <c r="F115" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" t="s">
-        <v>183</v>
-      </c>
       <c r="H115" t="s">
+        <v>200</v>
+      </c>
+      <c r="I115" t="s">
         <v>201</v>
-      </c>
-      <c r="I115" t="s">
-        <v>202</v>
       </c>
       <c r="J115" s="7">
         <v>2026</v>
@@ -6580,28 +6580,28 @@
         <v>23013000</v>
       </c>
       <c r="B116" t="s">
+        <v>180</v>
+      </c>
+      <c r="C116" t="s">
         <v>181</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" t="s">
+        <v>19</v>
+      </c>
+      <c r="G116" t="s">
         <v>182</v>
       </c>
-      <c r="D116" t="s">
-        <v>17</v>
-      </c>
-      <c r="E116" t="s">
-        <v>18</v>
-      </c>
-      <c r="F116" t="s">
-        <v>19</v>
-      </c>
-      <c r="G116" t="s">
-        <v>183</v>
-      </c>
       <c r="H116" t="s">
+        <v>202</v>
+      </c>
+      <c r="I116" t="s">
         <v>203</v>
-      </c>
-      <c r="I116" t="s">
-        <v>204</v>
       </c>
       <c r="J116" s="7">
         <v>2026</v>
@@ -6627,28 +6627,28 @@
         <v>23013000</v>
       </c>
       <c r="B117" t="s">
+        <v>180</v>
+      </c>
+      <c r="C117" t="s">
         <v>181</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" t="s">
+        <v>18</v>
+      </c>
+      <c r="F117" t="s">
+        <v>19</v>
+      </c>
+      <c r="G117" t="s">
         <v>182</v>
       </c>
-      <c r="D117" t="s">
-        <v>17</v>
-      </c>
-      <c r="E117" t="s">
-        <v>18</v>
-      </c>
-      <c r="F117" t="s">
-        <v>19</v>
-      </c>
-      <c r="G117" t="s">
-        <v>183</v>
-      </c>
       <c r="H117" t="s">
+        <v>204</v>
+      </c>
+      <c r="I117" t="s">
         <v>205</v>
-      </c>
-      <c r="I117" t="s">
-        <v>206</v>
       </c>
       <c r="J117" s="7">
         <v>2026</v>
@@ -6674,28 +6674,28 @@
         <v>23013000</v>
       </c>
       <c r="B118" t="s">
+        <v>180</v>
+      </c>
+      <c r="C118" t="s">
         <v>181</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118" t="s">
+        <v>18</v>
+      </c>
+      <c r="F118" t="s">
+        <v>19</v>
+      </c>
+      <c r="G118" t="s">
         <v>182</v>
       </c>
-      <c r="D118" t="s">
-        <v>17</v>
-      </c>
-      <c r="E118" t="s">
-        <v>18</v>
-      </c>
-      <c r="F118" t="s">
-        <v>19</v>
-      </c>
-      <c r="G118" t="s">
-        <v>183</v>
-      </c>
       <c r="H118" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I118" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J118" s="7">
         <v>2026</v>
@@ -6721,28 +6721,28 @@
         <v>23013000</v>
       </c>
       <c r="B119" t="s">
+        <v>180</v>
+      </c>
+      <c r="C119" t="s">
         <v>181</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" t="s">
+        <v>18</v>
+      </c>
+      <c r="F119" t="s">
+        <v>19</v>
+      </c>
+      <c r="G119" t="s">
         <v>182</v>
       </c>
-      <c r="D119" t="s">
-        <v>17</v>
-      </c>
-      <c r="E119" t="s">
-        <v>18</v>
-      </c>
-      <c r="F119" t="s">
-        <v>19</v>
-      </c>
-      <c r="G119" t="s">
-        <v>183</v>
-      </c>
       <c r="H119" t="s">
+        <v>207</v>
+      </c>
+      <c r="I119" t="s">
         <v>208</v>
-      </c>
-      <c r="I119" t="s">
-        <v>209</v>
       </c>
       <c r="J119" s="7">
         <v>2026</v>
@@ -6768,28 +6768,28 @@
         <v>23013000</v>
       </c>
       <c r="B120" t="s">
+        <v>180</v>
+      </c>
+      <c r="C120" t="s">
         <v>181</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" t="s">
+        <v>18</v>
+      </c>
+      <c r="F120" t="s">
+        <v>19</v>
+      </c>
+      <c r="G120" t="s">
         <v>182</v>
       </c>
-      <c r="D120" t="s">
-        <v>17</v>
-      </c>
-      <c r="E120" t="s">
-        <v>18</v>
-      </c>
-      <c r="F120" t="s">
-        <v>19</v>
-      </c>
-      <c r="G120" t="s">
-        <v>183</v>
-      </c>
       <c r="H120" t="s">
+        <v>209</v>
+      </c>
+      <c r="I120" t="s">
         <v>210</v>
-      </c>
-      <c r="I120" t="s">
-        <v>211</v>
       </c>
       <c r="J120" s="7">
         <v>2026</v>
@@ -6815,28 +6815,28 @@
         <v>23013000</v>
       </c>
       <c r="B121" t="s">
+        <v>180</v>
+      </c>
+      <c r="C121" t="s">
         <v>181</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" t="s">
+        <v>18</v>
+      </c>
+      <c r="F121" t="s">
+        <v>19</v>
+      </c>
+      <c r="G121" t="s">
         <v>182</v>
       </c>
-      <c r="D121" t="s">
-        <v>17</v>
-      </c>
-      <c r="E121" t="s">
-        <v>18</v>
-      </c>
-      <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" t="s">
-        <v>183</v>
-      </c>
       <c r="H121" t="s">
+        <v>98</v>
+      </c>
+      <c r="I121" t="s">
         <v>99</v>
-      </c>
-      <c r="I121" t="s">
-        <v>100</v>
       </c>
       <c r="J121" s="7">
         <v>2026</v>
@@ -6862,28 +6862,28 @@
         <v>23013000</v>
       </c>
       <c r="B122" t="s">
+        <v>180</v>
+      </c>
+      <c r="C122" t="s">
         <v>181</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" t="s">
+        <v>18</v>
+      </c>
+      <c r="F122" t="s">
+        <v>19</v>
+      </c>
+      <c r="G122" t="s">
         <v>182</v>
       </c>
-      <c r="D122" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" t="s">
-        <v>18</v>
-      </c>
-      <c r="F122" t="s">
-        <v>19</v>
-      </c>
-      <c r="G122" t="s">
-        <v>183</v>
-      </c>
       <c r="H122" t="s">
+        <v>211</v>
+      </c>
+      <c r="I122" t="s">
         <v>212</v>
-      </c>
-      <c r="I122" t="s">
-        <v>213</v>
       </c>
       <c r="J122" s="7">
         <v>2026</v>
@@ -6909,28 +6909,28 @@
         <v>23013000</v>
       </c>
       <c r="B123" t="s">
+        <v>180</v>
+      </c>
+      <c r="C123" t="s">
         <v>181</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" t="s">
+        <v>18</v>
+      </c>
+      <c r="F123" t="s">
+        <v>19</v>
+      </c>
+      <c r="G123" t="s">
         <v>182</v>
       </c>
-      <c r="D123" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" t="s">
-        <v>18</v>
-      </c>
-      <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s">
-        <v>183</v>
-      </c>
       <c r="H123" t="s">
+        <v>173</v>
+      </c>
+      <c r="I123" t="s">
         <v>174</v>
-      </c>
-      <c r="I123" t="s">
-        <v>175</v>
       </c>
       <c r="J123" s="7">
         <v>2027</v>
@@ -6945,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="N123" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6953,28 +6953,28 @@
         <v>23013000</v>
       </c>
       <c r="B124" t="s">
+        <v>180</v>
+      </c>
+      <c r="C124" t="s">
         <v>181</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124" t="s">
+        <v>18</v>
+      </c>
+      <c r="F124" t="s">
+        <v>19</v>
+      </c>
+      <c r="G124" t="s">
         <v>182</v>
       </c>
-      <c r="D124" t="s">
-        <v>17</v>
-      </c>
-      <c r="E124" t="s">
-        <v>18</v>
-      </c>
-      <c r="F124" t="s">
-        <v>19</v>
-      </c>
-      <c r="G124" t="s">
-        <v>183</v>
-      </c>
       <c r="H124" t="s">
+        <v>100</v>
+      </c>
+      <c r="I124" t="s">
         <v>101</v>
-      </c>
-      <c r="I124" t="s">
-        <v>102</v>
       </c>
       <c r="J124" s="7">
         <v>2027</v>
@@ -7000,28 +7000,28 @@
         <v>23013000</v>
       </c>
       <c r="B125" t="s">
+        <v>180</v>
+      </c>
+      <c r="C125" t="s">
         <v>181</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125" t="s">
+        <v>18</v>
+      </c>
+      <c r="F125" t="s">
+        <v>19</v>
+      </c>
+      <c r="G125" t="s">
         <v>182</v>
       </c>
-      <c r="D125" t="s">
-        <v>17</v>
-      </c>
-      <c r="E125" t="s">
-        <v>18</v>
-      </c>
-      <c r="F125" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" t="s">
-        <v>183</v>
-      </c>
       <c r="H125" t="s">
+        <v>213</v>
+      </c>
+      <c r="I125" t="s">
         <v>214</v>
-      </c>
-      <c r="I125" t="s">
-        <v>215</v>
       </c>
       <c r="J125" s="7">
         <v>2027</v>
@@ -7047,28 +7047,28 @@
         <v>23013000</v>
       </c>
       <c r="B126" t="s">
+        <v>180</v>
+      </c>
+      <c r="C126" t="s">
         <v>181</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126" t="s">
+        <v>18</v>
+      </c>
+      <c r="F126" t="s">
+        <v>19</v>
+      </c>
+      <c r="G126" t="s">
         <v>182</v>
       </c>
-      <c r="D126" t="s">
-        <v>17</v>
-      </c>
-      <c r="E126" t="s">
-        <v>18</v>
-      </c>
-      <c r="F126" t="s">
-        <v>19</v>
-      </c>
-      <c r="G126" t="s">
-        <v>183</v>
-      </c>
       <c r="H126" t="s">
+        <v>215</v>
+      </c>
+      <c r="I126" t="s">
         <v>216</v>
-      </c>
-      <c r="I126" t="s">
-        <v>217</v>
       </c>
       <c r="J126" s="7">
         <v>2027</v>
@@ -7094,28 +7094,28 @@
         <v>23013000</v>
       </c>
       <c r="B127" t="s">
+        <v>180</v>
+      </c>
+      <c r="C127" t="s">
         <v>181</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127" t="s">
+        <v>18</v>
+      </c>
+      <c r="F127" t="s">
+        <v>19</v>
+      </c>
+      <c r="G127" t="s">
         <v>182</v>
       </c>
-      <c r="D127" t="s">
-        <v>17</v>
-      </c>
-      <c r="E127" t="s">
-        <v>18</v>
-      </c>
-      <c r="F127" t="s">
-        <v>19</v>
-      </c>
-      <c r="G127" t="s">
-        <v>183</v>
-      </c>
       <c r="H127" t="s">
+        <v>217</v>
+      </c>
+      <c r="I127" t="s">
         <v>218</v>
-      </c>
-      <c r="I127" t="s">
-        <v>219</v>
       </c>
       <c r="J127" s="7">
         <v>2027</v>
@@ -7141,28 +7141,28 @@
         <v>23013000</v>
       </c>
       <c r="B128" t="s">
+        <v>180</v>
+      </c>
+      <c r="C128" t="s">
         <v>181</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" t="s">
+        <v>18</v>
+      </c>
+      <c r="F128" t="s">
+        <v>19</v>
+      </c>
+      <c r="G128" t="s">
         <v>182</v>
       </c>
-      <c r="D128" t="s">
-        <v>17</v>
-      </c>
-      <c r="E128" t="s">
-        <v>18</v>
-      </c>
-      <c r="F128" t="s">
-        <v>19</v>
-      </c>
-      <c r="G128" t="s">
-        <v>183</v>
-      </c>
       <c r="H128" t="s">
+        <v>178</v>
+      </c>
+      <c r="I128" t="s">
         <v>179</v>
-      </c>
-      <c r="I128" t="s">
-        <v>180</v>
       </c>
       <c r="J128" s="7">
         <v>2027</v>
@@ -7188,28 +7188,28 @@
         <v>23013000</v>
       </c>
       <c r="B129" t="s">
+        <v>180</v>
+      </c>
+      <c r="C129" t="s">
         <v>181</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" t="s">
+        <v>18</v>
+      </c>
+      <c r="F129" t="s">
+        <v>19</v>
+      </c>
+      <c r="G129" t="s">
         <v>182</v>
       </c>
-      <c r="D129" t="s">
-        <v>17</v>
-      </c>
-      <c r="E129" t="s">
-        <v>18</v>
-      </c>
-      <c r="F129" t="s">
-        <v>19</v>
-      </c>
-      <c r="G129" t="s">
-        <v>183</v>
-      </c>
       <c r="H129" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I129" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J129" s="7">
         <v>2027</v>
@@ -7235,28 +7235,28 @@
         <v>23013000</v>
       </c>
       <c r="B130" t="s">
+        <v>180</v>
+      </c>
+      <c r="C130" t="s">
         <v>181</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130" t="s">
+        <v>18</v>
+      </c>
+      <c r="F130" t="s">
+        <v>19</v>
+      </c>
+      <c r="G130" t="s">
         <v>182</v>
       </c>
-      <c r="D130" t="s">
-        <v>17</v>
-      </c>
-      <c r="E130" t="s">
-        <v>18</v>
-      </c>
-      <c r="F130" t="s">
-        <v>19</v>
-      </c>
-      <c r="G130" t="s">
-        <v>183</v>
-      </c>
       <c r="H130" t="s">
+        <v>114</v>
+      </c>
+      <c r="I130" t="s">
         <v>115</v>
-      </c>
-      <c r="I130" t="s">
-        <v>116</v>
       </c>
       <c r="J130" s="7">
         <v>2027</v>
@@ -7279,22 +7279,22 @@
         <v>23313400</v>
       </c>
       <c r="B131" t="s">
+        <v>220</v>
+      </c>
+      <c r="C131" t="s">
         <v>221</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131" t="s">
         <v>222</v>
       </c>
-      <c r="D131" t="s">
-        <v>17</v>
-      </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>223</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>224</v>
-      </c>
-      <c r="G131" t="s">
-        <v>225</v>
       </c>
       <c r="H131" t="s">
         <v>28</v>
@@ -7327,28 +7327,28 @@
         <v>23313400</v>
       </c>
       <c r="B132" t="s">
+        <v>220</v>
+      </c>
+      <c r="C132" t="s">
         <v>221</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" t="s">
         <v>222</v>
       </c>
-      <c r="D132" t="s">
-        <v>17</v>
-      </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>223</v>
       </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
         <v>224</v>
       </c>
-      <c r="G132" t="s">
-        <v>225</v>
-      </c>
       <c r="H132" t="s">
+        <v>128</v>
+      </c>
+      <c r="I132" t="s">
         <v>129</v>
-      </c>
-      <c r="I132" t="s">
-        <v>130</v>
       </c>
       <c r="J132" s="7">
         <v>2022</v>
@@ -7375,28 +7375,28 @@
         <v>23313400</v>
       </c>
       <c r="B133" t="s">
+        <v>220</v>
+      </c>
+      <c r="C133" t="s">
         <v>221</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" t="s">
         <v>222</v>
       </c>
-      <c r="D133" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>223</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>224</v>
-      </c>
-      <c r="G133" t="s">
-        <v>225</v>
       </c>
       <c r="H133" s="12" t="s">
         <v>82</v>
       </c>
       <c r="I133" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J133" s="7">
         <v>2022</v>
@@ -7423,22 +7423,22 @@
         <v>23313400</v>
       </c>
       <c r="B134" t="s">
+        <v>220</v>
+      </c>
+      <c r="C134" t="s">
         <v>221</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" t="s">
         <v>222</v>
       </c>
-      <c r="D134" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>223</v>
       </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
         <v>224</v>
-      </c>
-      <c r="G134" t="s">
-        <v>225</v>
       </c>
       <c r="H134" t="s">
         <v>25</v>
@@ -7471,22 +7471,22 @@
         <v>23313400</v>
       </c>
       <c r="B135" t="s">
+        <v>220</v>
+      </c>
+      <c r="C135" t="s">
         <v>221</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135" t="s">
         <v>222</v>
       </c>
-      <c r="D135" t="s">
-        <v>17</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>223</v>
       </c>
-      <c r="F135" t="s">
+      <c r="G135" t="s">
         <v>224</v>
-      </c>
-      <c r="G135" t="s">
-        <v>225</v>
       </c>
       <c r="H135" t="s">
         <v>38</v>
@@ -7498,7 +7498,7 @@
         <v>2022</v>
       </c>
       <c r="K135" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L135" s="9">
         <v>0</v>
@@ -7516,22 +7516,22 @@
         <v>23313400</v>
       </c>
       <c r="B136" t="s">
+        <v>220</v>
+      </c>
+      <c r="C136" t="s">
         <v>221</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136" t="s">
         <v>222</v>
       </c>
-      <c r="D136" t="s">
-        <v>17</v>
-      </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>223</v>
       </c>
-      <c r="F136" t="s">
+      <c r="G136" t="s">
         <v>224</v>
-      </c>
-      <c r="G136" t="s">
-        <v>225</v>
       </c>
       <c r="H136" t="s">
         <v>41</v>
@@ -7543,7 +7543,7 @@
         <v>2022</v>
       </c>
       <c r="K136" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L136" s="9">
         <v>0</v>
@@ -7561,22 +7561,22 @@
         <v>23313400</v>
       </c>
       <c r="B137" t="s">
+        <v>220</v>
+      </c>
+      <c r="C137" t="s">
         <v>221</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137" t="s">
         <v>222</v>
       </c>
-      <c r="D137" t="s">
-        <v>17</v>
-      </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
         <v>223</v>
       </c>
-      <c r="F137" t="s">
+      <c r="G137" t="s">
         <v>224</v>
-      </c>
-      <c r="G137" t="s">
-        <v>225</v>
       </c>
       <c r="H137" t="s">
         <v>43</v>
@@ -7588,7 +7588,7 @@
         <v>2022</v>
       </c>
       <c r="K137" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L137" s="9">
         <v>0</v>
@@ -7606,22 +7606,22 @@
         <v>23313400</v>
       </c>
       <c r="B138" t="s">
+        <v>220</v>
+      </c>
+      <c r="C138" t="s">
         <v>221</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138" t="s">
         <v>222</v>
       </c>
-      <c r="D138" t="s">
-        <v>17</v>
-      </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>223</v>
       </c>
-      <c r="F138" t="s">
+      <c r="G138" t="s">
         <v>224</v>
-      </c>
-      <c r="G138" t="s">
-        <v>225</v>
       </c>
       <c r="H138" t="s">
         <v>34</v>
@@ -7633,7 +7633,7 @@
         <v>2022</v>
       </c>
       <c r="K138" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L138" s="9">
         <v>0</v>
@@ -7651,22 +7651,22 @@
         <v>23313400</v>
       </c>
       <c r="B139" t="s">
+        <v>220</v>
+      </c>
+      <c r="C139" t="s">
         <v>221</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139" t="s">
         <v>222</v>
       </c>
-      <c r="D139" t="s">
-        <v>17</v>
-      </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>223</v>
       </c>
-      <c r="F139" t="s">
+      <c r="G139" t="s">
         <v>224</v>
-      </c>
-      <c r="G139" t="s">
-        <v>225</v>
       </c>
       <c r="H139" t="s">
         <v>45</v>
@@ -7699,22 +7699,22 @@
         <v>23313400</v>
       </c>
       <c r="B140" t="s">
+        <v>220</v>
+      </c>
+      <c r="C140" t="s">
         <v>221</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140" t="s">
         <v>222</v>
       </c>
-      <c r="D140" t="s">
-        <v>17</v>
-      </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>223</v>
       </c>
-      <c r="F140" t="s">
+      <c r="G140" t="s">
         <v>224</v>
-      </c>
-      <c r="G140" t="s">
-        <v>225</v>
       </c>
       <c r="H140" t="s">
         <v>50</v>
@@ -7747,22 +7747,22 @@
         <v>23313400</v>
       </c>
       <c r="B141" t="s">
+        <v>220</v>
+      </c>
+      <c r="C141" t="s">
         <v>221</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141" t="s">
         <v>222</v>
       </c>
-      <c r="D141" t="s">
-        <v>17</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>223</v>
       </c>
-      <c r="F141" t="s">
+      <c r="G141" t="s">
         <v>224</v>
-      </c>
-      <c r="G141" t="s">
-        <v>225</v>
       </c>
       <c r="H141" t="s">
         <v>57</v>
@@ -7795,28 +7795,28 @@
         <v>23313400</v>
       </c>
       <c r="B142" t="s">
+        <v>220</v>
+      </c>
+      <c r="C142" t="s">
         <v>221</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
+        <v>17</v>
+      </c>
+      <c r="E142" t="s">
         <v>222</v>
       </c>
-      <c r="D142" t="s">
-        <v>17</v>
-      </c>
-      <c r="E142" t="s">
+      <c r="F142" t="s">
         <v>223</v>
       </c>
-      <c r="F142" t="s">
+      <c r="G142" t="s">
         <v>224</v>
       </c>
-      <c r="G142" t="s">
-        <v>225</v>
-      </c>
       <c r="H142" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I142" t="s">
         <v>113</v>
-      </c>
-      <c r="I142" t="s">
-        <v>114</v>
       </c>
       <c r="J142" s="7">
         <v>2023</v>
@@ -7843,22 +7843,22 @@
         <v>23313400</v>
       </c>
       <c r="B143" t="s">
+        <v>220</v>
+      </c>
+      <c r="C143" t="s">
         <v>221</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143" t="s">
         <v>222</v>
       </c>
-      <c r="D143" t="s">
-        <v>17</v>
-      </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
         <v>223</v>
       </c>
-      <c r="F143" t="s">
+      <c r="G143" t="s">
         <v>224</v>
-      </c>
-      <c r="G143" t="s">
-        <v>225</v>
       </c>
       <c r="H143" t="s">
         <v>54</v>
@@ -7870,7 +7870,7 @@
         <v>2023</v>
       </c>
       <c r="K143" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L143" s="9">
         <v>0</v>
@@ -7888,28 +7888,28 @@
         <v>23313400</v>
       </c>
       <c r="B144" t="s">
+        <v>220</v>
+      </c>
+      <c r="C144" t="s">
         <v>221</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" t="s">
         <v>222</v>
       </c>
-      <c r="D144" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>223</v>
       </c>
-      <c r="F144" t="s">
+      <c r="G144" t="s">
         <v>224</v>
       </c>
-      <c r="G144" t="s">
-        <v>225</v>
-      </c>
       <c r="H144" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I144" t="s">
         <v>228</v>
-      </c>
-      <c r="I144" t="s">
-        <v>229</v>
       </c>
       <c r="J144" s="7">
         <v>2023</v>
@@ -7936,28 +7936,28 @@
         <v>23313400</v>
       </c>
       <c r="B145" t="s">
+        <v>220</v>
+      </c>
+      <c r="C145" t="s">
         <v>221</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" t="s">
         <v>222</v>
       </c>
-      <c r="D145" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
         <v>223</v>
       </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
         <v>224</v>
       </c>
-      <c r="G145" t="s">
-        <v>225</v>
-      </c>
       <c r="H145" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="I145" t="s">
         <v>230</v>
-      </c>
-      <c r="I145" t="s">
-        <v>231</v>
       </c>
       <c r="J145" s="7">
         <v>2023</v>
@@ -7984,22 +7984,22 @@
         <v>23313400</v>
       </c>
       <c r="B146" t="s">
+        <v>220</v>
+      </c>
+      <c r="C146" t="s">
         <v>221</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" t="s">
         <v>222</v>
       </c>
-      <c r="D146" t="s">
-        <v>17</v>
-      </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>223</v>
       </c>
-      <c r="F146" t="s">
+      <c r="G146" t="s">
         <v>224</v>
-      </c>
-      <c r="G146" t="s">
-        <v>225</v>
       </c>
       <c r="H146" t="s">
         <v>30</v>
@@ -8032,22 +8032,22 @@
         <v>23313400</v>
       </c>
       <c r="B147" t="s">
+        <v>220</v>
+      </c>
+      <c r="C147" t="s">
         <v>221</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147" t="s">
         <v>222</v>
       </c>
-      <c r="D147" t="s">
-        <v>17</v>
-      </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>223</v>
       </c>
-      <c r="F147" t="s">
+      <c r="G147" t="s">
         <v>224</v>
-      </c>
-      <c r="G147" t="s">
-        <v>225</v>
       </c>
       <c r="H147" t="s">
         <v>21</v>
@@ -8080,22 +8080,22 @@
         <v>23313400</v>
       </c>
       <c r="B148" t="s">
+        <v>220</v>
+      </c>
+      <c r="C148" t="s">
         <v>221</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148" t="s">
         <v>222</v>
       </c>
-      <c r="D148" t="s">
-        <v>17</v>
-      </c>
-      <c r="E148" t="s">
+      <c r="F148" t="s">
         <v>223</v>
       </c>
-      <c r="F148" t="s">
+      <c r="G148" t="s">
         <v>224</v>
-      </c>
-      <c r="G148" t="s">
-        <v>225</v>
       </c>
       <c r="H148" t="s">
         <v>75</v>
@@ -8107,7 +8107,7 @@
         <v>2023</v>
       </c>
       <c r="K148" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L148" s="9">
         <v>0</v>
@@ -8125,28 +8125,28 @@
         <v>23313400</v>
       </c>
       <c r="B149" t="s">
+        <v>220</v>
+      </c>
+      <c r="C149" t="s">
         <v>221</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149" t="s">
         <v>222</v>
       </c>
-      <c r="D149" t="s">
-        <v>17</v>
-      </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
         <v>223</v>
       </c>
-      <c r="F149" t="s">
+      <c r="G149" t="s">
         <v>224</v>
       </c>
-      <c r="G149" t="s">
-        <v>225</v>
-      </c>
       <c r="H149" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I149" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J149" s="7">
         <v>2024</v>
@@ -8173,28 +8173,28 @@
         <v>23313400</v>
       </c>
       <c r="B150" t="s">
+        <v>220</v>
+      </c>
+      <c r="C150" t="s">
         <v>221</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150" t="s">
         <v>222</v>
       </c>
-      <c r="D150" t="s">
-        <v>17</v>
-      </c>
-      <c r="E150" t="s">
+      <c r="F150" t="s">
         <v>223</v>
       </c>
-      <c r="F150" t="s">
+      <c r="G150" t="s">
         <v>224</v>
       </c>
-      <c r="G150" t="s">
-        <v>225</v>
-      </c>
       <c r="H150" t="s">
+        <v>149</v>
+      </c>
+      <c r="I150" t="s">
         <v>150</v>
-      </c>
-      <c r="I150" t="s">
-        <v>151</v>
       </c>
       <c r="J150" s="7">
         <v>2024</v>
@@ -8221,22 +8221,22 @@
         <v>23313400</v>
       </c>
       <c r="B151" t="s">
+        <v>220</v>
+      </c>
+      <c r="C151" t="s">
         <v>221</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151" t="s">
         <v>222</v>
       </c>
-      <c r="D151" t="s">
-        <v>17</v>
-      </c>
-      <c r="E151" t="s">
+      <c r="F151" t="s">
         <v>223</v>
       </c>
-      <c r="F151" t="s">
+      <c r="G151" t="s">
         <v>224</v>
-      </c>
-      <c r="G151" t="s">
-        <v>225</v>
       </c>
       <c r="H151" t="s">
         <v>59</v>
@@ -8269,28 +8269,28 @@
         <v>23313400</v>
       </c>
       <c r="B152" t="s">
+        <v>220</v>
+      </c>
+      <c r="C152" t="s">
         <v>221</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152" t="s">
         <v>222</v>
       </c>
-      <c r="D152" t="s">
-        <v>17</v>
-      </c>
-      <c r="E152" t="s">
+      <c r="F152" t="s">
         <v>223</v>
       </c>
-      <c r="F152" t="s">
+      <c r="G152" t="s">
         <v>224</v>
       </c>
-      <c r="G152" t="s">
-        <v>225</v>
-      </c>
       <c r="H152" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I152" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J152" s="7">
         <v>2024</v>
@@ -8317,28 +8317,28 @@
         <v>23313400</v>
       </c>
       <c r="B153" t="s">
+        <v>220</v>
+      </c>
+      <c r="C153" t="s">
         <v>221</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153" t="s">
         <v>222</v>
       </c>
-      <c r="D153" t="s">
-        <v>17</v>
-      </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>223</v>
       </c>
-      <c r="F153" t="s">
+      <c r="G153" t="s">
         <v>224</v>
       </c>
-      <c r="G153" t="s">
-        <v>225</v>
-      </c>
       <c r="H153" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="I153" t="s">
         <v>234</v>
-      </c>
-      <c r="I153" t="s">
-        <v>235</v>
       </c>
       <c r="J153" s="7">
         <v>2024</v>
@@ -8365,28 +8365,28 @@
         <v>23313400</v>
       </c>
       <c r="B154" t="s">
+        <v>220</v>
+      </c>
+      <c r="C154" t="s">
         <v>221</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154" t="s">
         <v>222</v>
       </c>
-      <c r="D154" t="s">
-        <v>17</v>
-      </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>223</v>
       </c>
-      <c r="F154" t="s">
+      <c r="G154" t="s">
         <v>224</v>
       </c>
-      <c r="G154" t="s">
-        <v>225</v>
-      </c>
       <c r="H154" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="I154" t="s">
         <v>236</v>
-      </c>
-      <c r="I154" t="s">
-        <v>237</v>
       </c>
       <c r="J154" s="7">
         <v>2024</v>
@@ -8413,28 +8413,28 @@
         <v>23313400</v>
       </c>
       <c r="B155" t="s">
+        <v>220</v>
+      </c>
+      <c r="C155" t="s">
         <v>221</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" t="s">
         <v>222</v>
       </c>
-      <c r="D155" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
         <v>223</v>
       </c>
-      <c r="F155" t="s">
+      <c r="G155" t="s">
         <v>224</v>
       </c>
-      <c r="G155" t="s">
-        <v>225</v>
-      </c>
       <c r="H155" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="I155" t="s">
         <v>238</v>
-      </c>
-      <c r="I155" t="s">
-        <v>239</v>
       </c>
       <c r="J155" s="7">
         <v>2024</v>
@@ -8461,28 +8461,28 @@
         <v>23313400</v>
       </c>
       <c r="B156" t="s">
+        <v>220</v>
+      </c>
+      <c r="C156" t="s">
         <v>221</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" t="s">
         <v>222</v>
       </c>
-      <c r="D156" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
         <v>223</v>
       </c>
-      <c r="F156" t="s">
+      <c r="G156" t="s">
         <v>224</v>
       </c>
-      <c r="G156" t="s">
-        <v>225</v>
-      </c>
       <c r="H156" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="I156" t="s">
         <v>141</v>
-      </c>
-      <c r="I156" t="s">
-        <v>142</v>
       </c>
       <c r="J156" s="7">
         <v>2024</v>
@@ -8509,28 +8509,28 @@
         <v>23313400</v>
       </c>
       <c r="B157" t="s">
+        <v>220</v>
+      </c>
+      <c r="C157" t="s">
         <v>221</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
+        <v>17</v>
+      </c>
+      <c r="E157" t="s">
         <v>222</v>
       </c>
-      <c r="D157" t="s">
-        <v>17</v>
-      </c>
-      <c r="E157" t="s">
+      <c r="F157" t="s">
         <v>223</v>
       </c>
-      <c r="F157" t="s">
+      <c r="G157" t="s">
         <v>224</v>
       </c>
-      <c r="G157" t="s">
-        <v>225</v>
-      </c>
       <c r="H157" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="I157" t="s">
         <v>240</v>
-      </c>
-      <c r="I157" t="s">
-        <v>241</v>
       </c>
       <c r="J157" s="7">
         <v>2025</v>
@@ -8557,28 +8557,28 @@
         <v>23313400</v>
       </c>
       <c r="B158" t="s">
+        <v>220</v>
+      </c>
+      <c r="C158" t="s">
         <v>221</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
+        <v>17</v>
+      </c>
+      <c r="E158" t="s">
         <v>222</v>
       </c>
-      <c r="D158" t="s">
-        <v>17</v>
-      </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>223</v>
       </c>
-      <c r="F158" t="s">
+      <c r="G158" t="s">
         <v>224</v>
       </c>
-      <c r="G158" t="s">
-        <v>225</v>
-      </c>
       <c r="H158" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="I158" t="s">
         <v>242</v>
-      </c>
-      <c r="I158" t="s">
-        <v>243</v>
       </c>
       <c r="J158" s="7">
         <v>2025</v>
@@ -8605,28 +8605,28 @@
         <v>23313400</v>
       </c>
       <c r="B159" t="s">
+        <v>220</v>
+      </c>
+      <c r="C159" t="s">
         <v>221</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
+        <v>17</v>
+      </c>
+      <c r="E159" t="s">
         <v>222</v>
       </c>
-      <c r="D159" t="s">
-        <v>17</v>
-      </c>
-      <c r="E159" t="s">
+      <c r="F159" t="s">
         <v>223</v>
       </c>
-      <c r="F159" t="s">
+      <c r="G159" t="s">
         <v>224</v>
       </c>
-      <c r="G159" t="s">
-        <v>225</v>
-      </c>
       <c r="H159" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I159" t="s">
         <v>244</v>
-      </c>
-      <c r="I159" t="s">
-        <v>245</v>
       </c>
       <c r="J159" s="7">
         <v>2025</v>
@@ -8653,28 +8653,28 @@
         <v>23313400</v>
       </c>
       <c r="B160" t="s">
+        <v>220</v>
+      </c>
+      <c r="C160" t="s">
         <v>221</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
+        <v>17</v>
+      </c>
+      <c r="E160" t="s">
         <v>222</v>
       </c>
-      <c r="D160" t="s">
-        <v>17</v>
-      </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>223</v>
       </c>
-      <c r="F160" t="s">
+      <c r="G160" t="s">
         <v>224</v>
       </c>
-      <c r="G160" t="s">
-        <v>225</v>
-      </c>
       <c r="H160" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="I160" t="s">
         <v>246</v>
-      </c>
-      <c r="I160" t="s">
-        <v>247</v>
       </c>
       <c r="J160" s="7">
         <v>2025</v>
@@ -8701,28 +8701,28 @@
         <v>23313400</v>
       </c>
       <c r="B161" t="s">
+        <v>220</v>
+      </c>
+      <c r="C161" t="s">
         <v>221</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
+        <v>17</v>
+      </c>
+      <c r="E161" t="s">
         <v>222</v>
       </c>
-      <c r="D161" t="s">
-        <v>17</v>
-      </c>
-      <c r="E161" t="s">
+      <c r="F161" t="s">
         <v>223</v>
       </c>
-      <c r="F161" t="s">
+      <c r="G161" t="s">
         <v>224</v>
       </c>
-      <c r="G161" t="s">
-        <v>225</v>
-      </c>
       <c r="H161" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I161" t="s">
         <v>248</v>
-      </c>
-      <c r="I161" t="s">
-        <v>249</v>
       </c>
       <c r="J161" s="7">
         <v>2026</v>
@@ -8749,28 +8749,28 @@
         <v>23313400</v>
       </c>
       <c r="B162" t="s">
+        <v>220</v>
+      </c>
+      <c r="C162" t="s">
         <v>221</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E162" t="s">
         <v>222</v>
       </c>
-      <c r="D162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E162" t="s">
+      <c r="F162" t="s">
         <v>223</v>
       </c>
-      <c r="F162" t="s">
+      <c r="G162" t="s">
         <v>224</v>
       </c>
-      <c r="G162" t="s">
-        <v>225</v>
-      </c>
       <c r="H162" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="I162" t="s">
         <v>250</v>
-      </c>
-      <c r="I162" t="s">
-        <v>251</v>
       </c>
       <c r="J162" s="7">
         <v>2026</v>
@@ -8797,28 +8797,28 @@
         <v>23313400</v>
       </c>
       <c r="B163" t="s">
+        <v>220</v>
+      </c>
+      <c r="C163" t="s">
         <v>221</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
+        <v>17</v>
+      </c>
+      <c r="E163" t="s">
         <v>222</v>
       </c>
-      <c r="D163" t="s">
-        <v>17</v>
-      </c>
-      <c r="E163" t="s">
+      <c r="F163" t="s">
         <v>223</v>
       </c>
-      <c r="F163" t="s">
+      <c r="G163" t="s">
         <v>224</v>
       </c>
-      <c r="G163" t="s">
-        <v>225</v>
-      </c>
       <c r="H163" t="s">
+        <v>215</v>
+      </c>
+      <c r="I163" t="s">
         <v>216</v>
-      </c>
-      <c r="I163" t="s">
-        <v>217</v>
       </c>
       <c r="J163" s="7">
         <v>2026</v>
@@ -8844,28 +8844,28 @@
         <v>23313400</v>
       </c>
       <c r="B164" t="s">
+        <v>220</v>
+      </c>
+      <c r="C164" t="s">
         <v>221</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
+        <v>17</v>
+      </c>
+      <c r="E164" t="s">
         <v>222</v>
       </c>
-      <c r="D164" t="s">
-        <v>17</v>
-      </c>
-      <c r="E164" t="s">
+      <c r="F164" t="s">
         <v>223</v>
       </c>
-      <c r="F164" t="s">
+      <c r="G164" t="s">
         <v>224</v>
       </c>
-      <c r="G164" t="s">
-        <v>225</v>
-      </c>
       <c r="H164" t="s">
+        <v>108</v>
+      </c>
+      <c r="I164" t="s">
         <v>109</v>
-      </c>
-      <c r="I164" t="s">
-        <v>110</v>
       </c>
       <c r="J164" s="7">
         <v>2026</v>
@@ -8891,28 +8891,28 @@
         <v>23313400</v>
       </c>
       <c r="B165" t="s">
+        <v>220</v>
+      </c>
+      <c r="C165" t="s">
         <v>221</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E165" t="s">
         <v>222</v>
       </c>
-      <c r="D165" t="s">
-        <v>17</v>
-      </c>
-      <c r="E165" t="s">
+      <c r="F165" t="s">
         <v>223</v>
       </c>
-      <c r="F165" t="s">
+      <c r="G165" t="s">
         <v>224</v>
       </c>
-      <c r="G165" t="s">
-        <v>225</v>
-      </c>
       <c r="H165" t="s">
+        <v>173</v>
+      </c>
+      <c r="I165" t="s">
         <v>174</v>
-      </c>
-      <c r="I165" t="s">
-        <v>175</v>
       </c>
       <c r="J165" s="7">
         <v>2026</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="N165" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S165" s="13"/>
     </row>
@@ -8936,28 +8936,28 @@
         <v>23313400</v>
       </c>
       <c r="B166" t="s">
+        <v>220</v>
+      </c>
+      <c r="C166" t="s">
         <v>221</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" t="s">
         <v>222</v>
       </c>
-      <c r="D166" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" t="s">
+      <c r="F166" t="s">
         <v>223</v>
       </c>
-      <c r="F166" t="s">
+      <c r="G166" t="s">
         <v>224</v>
       </c>
-      <c r="G166" t="s">
-        <v>225</v>
-      </c>
       <c r="H166" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="I166" t="s">
         <v>252</v>
-      </c>
-      <c r="I166" t="s">
-        <v>253</v>
       </c>
       <c r="J166" s="7">
         <v>2026</v>
@@ -8984,28 +8984,28 @@
         <v>23313400</v>
       </c>
       <c r="B167" t="s">
+        <v>220</v>
+      </c>
+      <c r="C167" t="s">
         <v>221</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" t="s">
         <v>222</v>
       </c>
-      <c r="D167" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" t="s">
+      <c r="F167" t="s">
         <v>223</v>
       </c>
-      <c r="F167" t="s">
+      <c r="G167" t="s">
         <v>224</v>
       </c>
-      <c r="G167" t="s">
-        <v>225</v>
-      </c>
       <c r="H167" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="I167" t="s">
         <v>254</v>
-      </c>
-      <c r="I167" t="s">
-        <v>255</v>
       </c>
       <c r="J167" s="7">
         <v>2026</v>
@@ -9032,28 +9032,28 @@
         <v>23313400</v>
       </c>
       <c r="B168" t="s">
+        <v>220</v>
+      </c>
+      <c r="C168" t="s">
         <v>221</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
+        <v>17</v>
+      </c>
+      <c r="E168" t="s">
         <v>222</v>
       </c>
-      <c r="D168" t="s">
-        <v>17</v>
-      </c>
-      <c r="E168" t="s">
+      <c r="F168" t="s">
         <v>223</v>
       </c>
-      <c r="F168" t="s">
+      <c r="G168" t="s">
         <v>224</v>
       </c>
-      <c r="G168" t="s">
-        <v>225</v>
-      </c>
       <c r="H168" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="I168" t="s">
         <v>256</v>
-      </c>
-      <c r="I168" t="s">
-        <v>257</v>
       </c>
       <c r="J168" s="7">
         <v>2026</v>
@@ -9079,28 +9079,28 @@
         <v>23313400</v>
       </c>
       <c r="B169" t="s">
+        <v>220</v>
+      </c>
+      <c r="C169" t="s">
         <v>221</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
+        <v>17</v>
+      </c>
+      <c r="E169" t="s">
         <v>222</v>
       </c>
-      <c r="D169" t="s">
-        <v>17</v>
-      </c>
-      <c r="E169" t="s">
+      <c r="F169" t="s">
         <v>223</v>
       </c>
-      <c r="F169" t="s">
+      <c r="G169" t="s">
         <v>224</v>
       </c>
-      <c r="G169" t="s">
-        <v>225</v>
-      </c>
       <c r="H169" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="I169" t="s">
         <v>258</v>
-      </c>
-      <c r="I169" t="s">
-        <v>259</v>
       </c>
       <c r="J169" s="7">
         <v>2027</v>
@@ -9127,28 +9127,28 @@
         <v>23313400</v>
       </c>
       <c r="B170" t="s">
+        <v>220</v>
+      </c>
+      <c r="C170" t="s">
         <v>221</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
+        <v>17</v>
+      </c>
+      <c r="E170" t="s">
         <v>222</v>
       </c>
-      <c r="D170" t="s">
-        <v>17</v>
-      </c>
-      <c r="E170" t="s">
+      <c r="F170" t="s">
         <v>223</v>
       </c>
-      <c r="F170" t="s">
+      <c r="G170" t="s">
         <v>224</v>
       </c>
-      <c r="G170" t="s">
-        <v>225</v>
-      </c>
       <c r="H170" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="I170" t="s">
         <v>260</v>
-      </c>
-      <c r="I170" t="s">
-        <v>261</v>
       </c>
       <c r="J170" s="7">
         <v>2027</v>
@@ -9175,28 +9175,28 @@
         <v>23313400</v>
       </c>
       <c r="B171" t="s">
+        <v>220</v>
+      </c>
+      <c r="C171" t="s">
         <v>221</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
+        <v>17</v>
+      </c>
+      <c r="E171" t="s">
         <v>222</v>
       </c>
-      <c r="D171" t="s">
-        <v>17</v>
-      </c>
-      <c r="E171" t="s">
+      <c r="F171" t="s">
         <v>223</v>
       </c>
-      <c r="F171" t="s">
+      <c r="G171" t="s">
         <v>224</v>
       </c>
-      <c r="G171" t="s">
-        <v>225</v>
-      </c>
       <c r="H171" t="s">
+        <v>178</v>
+      </c>
+      <c r="I171" t="s">
         <v>179</v>
-      </c>
-      <c r="I171" t="s">
-        <v>180</v>
       </c>
       <c r="J171" s="7">
         <v>2027</v>
@@ -9223,28 +9223,28 @@
         <v>23313400</v>
       </c>
       <c r="B172" t="s">
+        <v>220</v>
+      </c>
+      <c r="C172" t="s">
         <v>221</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
+        <v>17</v>
+      </c>
+      <c r="E172" t="s">
         <v>222</v>
       </c>
-      <c r="D172" t="s">
-        <v>17</v>
-      </c>
-      <c r="E172" t="s">
+      <c r="F172" t="s">
         <v>223</v>
       </c>
-      <c r="F172" t="s">
+      <c r="G172" t="s">
         <v>224</v>
       </c>
-      <c r="G172" t="s">
-        <v>225</v>
-      </c>
       <c r="H172" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I172" t="s">
         <v>101</v>
-      </c>
-      <c r="I172" t="s">
-        <v>102</v>
       </c>
       <c r="J172" s="7">
         <v>2027</v>
@@ -9271,28 +9271,28 @@
         <v>23313400</v>
       </c>
       <c r="B173" t="s">
+        <v>220</v>
+      </c>
+      <c r="C173" t="s">
         <v>221</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
+        <v>17</v>
+      </c>
+      <c r="E173" t="s">
         <v>222</v>
       </c>
-      <c r="D173" t="s">
-        <v>17</v>
-      </c>
-      <c r="E173" t="s">
+      <c r="F173" t="s">
         <v>223</v>
       </c>
-      <c r="F173" t="s">
+      <c r="G173" t="s">
         <v>224</v>
       </c>
-      <c r="G173" t="s">
-        <v>225</v>
-      </c>
       <c r="H173" t="s">
+        <v>114</v>
+      </c>
+      <c r="I173" t="s">
         <v>115</v>
-      </c>
-      <c r="I173" t="s">
-        <v>116</v>
       </c>
       <c r="J173" s="7">
         <v>2027</v>
